--- a/LogixGo-Test-Cases.xlsx
+++ b/LogixGo-Test-Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyinlola/Desktop/ESIGELEC/Java Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyinlola/Desktop/ESIGELEC/Java Project/LogixGo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E9342-9BA2-EB48-8ADD-2474BBB4C7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81086432-AAF4-F84C-9203-4FEE2C5D6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="637">
   <si>
     <t>ID</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Registration page loads</t>
   </si>
   <si>
-    <t>Open the registration page</t>
-  </si>
-  <si>
-    <t>All fields load correctly based on role selection</t>
-  </si>
-  <si>
     <t>Page ready for data input</t>
   </si>
   <si>
@@ -328,12 +322,6 @@
     <t>Application is launched</t>
   </si>
   <si>
-    <t>Navigate to the login page</t>
-  </si>
-  <si>
-    <t>Login form loads with all fields and "Login" button visible</t>
-  </si>
-  <si>
     <t>Page ready for input</t>
   </si>
   <si>
@@ -493,12 +481,6 @@
     <t>User is logged in</t>
   </si>
   <si>
-    <t>Navigate to the "Update Details" page</t>
-  </si>
-  <si>
-    <t>Update form loads with appropriate fields based on role</t>
-  </si>
-  <si>
     <t>Verify successful email update</t>
   </si>
   <si>
@@ -1958,6 +1940,21 @@
   </si>
   <si>
     <t>ßßß</t>
+  </si>
+  <si>
+    <t>Open the registration page by clicking on "signup now" from the login page</t>
+  </si>
+  <si>
+    <t>While on the start page</t>
+  </si>
+  <si>
+    <t>All input fields are initially empty</t>
+  </si>
+  <si>
+    <t>Click the "Update Details" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update form loads with appropriate fields based on role i.e.truck details only shown for driver </t>
   </si>
 </sst>
 </file>
@@ -1968,9 +1965,16 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2153,109 +2157,112 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3106,8 +3113,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3130,18 +3137,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,20 +3159,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3195,7 +3202,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3217,9 +3224,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>79</v>
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>14</v>
@@ -3227,303 +3234,303 @@
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
+      <c r="E10" s="34" t="s">
+        <v>632</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
+      <c r="G10" s="34" t="s">
+        <v>634</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>80</v>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>75</v>
+      <c r="H11" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>81</v>
+      <c r="B12" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>82</v>
+      <c r="B13" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>77</v>
+        <v>21</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>83</v>
+      <c r="B14" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>84</v>
+      <c r="B15" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>85</v>
+      <c r="B16" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>86</v>
+      <c r="B17" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>87</v>
+      <c r="B18" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="12"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
-        <v>88</v>
+      <c r="B19" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="H19" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>89</v>
+      <c r="B20" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>90</v>
+      <c r="B21" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>74</v>
+      <c r="H21" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
@@ -3548,7 +3555,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3559,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -3583,18 +3590,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3605,20 +3612,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>592</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3648,7 +3655,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3671,198 +3678,198 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>599</v>
+      <c r="B10" s="24" t="s">
+        <v>593</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>601</v>
+        <v>153</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>595</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>603</v>
+      <c r="B11" s="24" t="s">
+        <v>597</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>608</v>
+        <v>601</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>602</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>609</v>
+      <c r="B12" s="24" t="s">
+        <v>603</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>611</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>614</v>
+        <v>607</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>615</v>
+      <c r="B13" s="24" t="s">
+        <v>609</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>583</v>
+        <v>590</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>577</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
-      <c r="P13" s="33" t="s">
-        <v>637</v>
+      <c r="K13" s="25"/>
+      <c r="P13" s="27" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>620</v>
+      <c r="B14" s="24" t="s">
+        <v>614</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>624</v>
+        <v>617</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>618</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>625</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>631</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>632</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>633</v>
+        <v>599</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>627</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3871,7 +3878,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3882,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B366541-CA2B-CC4E-BB9D-E38E79E38E2B}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3906,18 +3913,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,20 +3935,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>141</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3971,7 +3978,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3993,235 +4000,235 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>94</v>
+      <c r="E10" s="34" t="s">
+        <v>633</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>96</v>
+      <c r="G10" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="G11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H11" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="H12" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="H13" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>130</v>
+      <c r="B16" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -4256,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C509C-7F65-8048-97F5-DF460F44272B}">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4280,18 +4287,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4302,20 +4309,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>195</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4345,7 +4352,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4367,339 +4374,339 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>202</v>
+    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>635</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>150</v>
+      <c r="G10" s="34" t="s">
+        <v>636</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>203</v>
+      <c r="B11" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>204</v>
+      <c r="B12" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>205</v>
+      <c r="B13" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>206</v>
+      <c r="B14" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>207</v>
+      <c r="B15" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>208</v>
+      <c r="B16" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>209</v>
+      <c r="B17" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>210</v>
+      <c r="B18" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
-        <v>211</v>
+      <c r="B19" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>212</v>
+      <c r="B20" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>213</v>
+      <c r="B21" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>214</v>
+      <c r="B22" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
@@ -4712,7 +4719,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4723,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB0DB-3E25-784A-9BCC-E8826755E5DE}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -4747,18 +4754,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,20 +4776,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>209</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4812,7 +4819,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4835,264 +4842,264 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>216</v>
+      <c r="B10" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>267</v>
+        <v>144</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>219</v>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>224</v>
+      <c r="B12" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>165</v>
+        <v>221</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>228</v>
+      <c r="B13" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>165</v>
+        <v>225</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>232</v>
+      <c r="B14" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="G14" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>233</v>
+      <c r="B15" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>237</v>
+      <c r="B16" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>241</v>
+      <c r="B17" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>246</v>
+      <c r="B18" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
-        <v>252</v>
+      <c r="B19" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5111,7 +5118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D294CC8-3045-6A44-A680-BA424C17C61B}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -5135,18 +5142,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5157,20 +5164,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5200,7 +5207,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -5223,498 +5230,498 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>362</v>
+      <c r="B10" s="24" t="s">
+        <v>356</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>271</v>
+        <v>264</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>363</v>
+      <c r="B11" s="24" t="s">
+        <v>357</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>364</v>
+      <c r="B12" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>281</v>
+        <v>328</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>365</v>
+      <c r="B13" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>292</v>
+        <v>333</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>366</v>
+      <c r="B14" s="24" t="s">
+        <v>360</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>343</v>
+      <c r="H14" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>367</v>
+      <c r="B15" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>346</v>
+        <v>339</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>368</v>
+      <c r="B16" s="24" t="s">
+        <v>362</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>369</v>
+      <c r="B17" s="24" t="s">
+        <v>363</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>348</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>370</v>
+      <c r="B18" s="24" t="s">
+        <v>364</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>361</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>292</v>
+        <v>351</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
-        <v>371</v>
+      <c r="B19" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>287</v>
+        <v>280</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>372</v>
+      <c r="B20" s="24" t="s">
+        <v>366</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>373</v>
+      <c r="B21" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>374</v>
+      <c r="B22" s="24" t="s">
+        <v>368</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
-        <v>375</v>
+      <c r="B23" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
-        <v>376</v>
+      <c r="B24" s="24" t="s">
+        <v>370</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
-        <v>377</v>
+      <c r="B25" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>314</v>
+        <v>307</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>308</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
-        <v>378</v>
+      <c r="B26" s="24" t="s">
+        <v>372</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>323</v>
+        <v>316</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
-        <v>379</v>
+      <c r="B27" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>302</v>
+        <v>321</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="31"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>330</v>
+      <c r="B28" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>324</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>331</v>
+        <v>268</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>31</v>
+        <v>323</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="31"/>
+      <c r="K28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5723,7 +5730,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5758,18 +5765,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5780,20 +5787,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>375</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5823,7 +5830,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -5846,186 +5853,186 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>382</v>
+      <c r="B10" s="24" t="s">
+        <v>376</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>379</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>394</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>395</v>
+      <c r="B12" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>400</v>
+      <c r="B13" s="24" t="s">
+        <v>394</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>404</v>
+        <v>386</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>405</v>
+      <c r="B14" s="24" t="s">
+        <v>399</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>404</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>409</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>415</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>416</v>
+      <c r="B16" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>421</v>
+        <v>414</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6044,7 +6051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E3903-D23B-4C4C-9365-4BD973AD430F}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6068,18 +6075,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6090,20 +6097,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>416</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6133,7 +6140,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -6156,264 +6163,264 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>423</v>
+      <c r="B10" s="24" t="s">
+        <v>417</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>427</v>
+      <c r="B11" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>431</v>
+        <v>424</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>425</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>432</v>
+      <c r="B12" s="24" t="s">
+        <v>426</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>437</v>
+        <v>430</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>431</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>438</v>
+      <c r="B13" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>443</v>
+        <v>472</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>444</v>
+      <c r="B14" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>446</v>
-      </c>
       <c r="F14" s="8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>448</v>
+        <v>441</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>449</v>
+      <c r="B15" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>456</v>
+      <c r="B17" s="24" t="s">
+        <v>450</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>464</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>466</v>
+        <v>459</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>460</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>468</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>472</v>
+        <v>465</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>466</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>473</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>470</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6422,7 +6429,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6457,18 +6464,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6479,20 +6486,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>478</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6522,7 +6529,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -6545,238 +6552,238 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>485</v>
+      <c r="B10" s="24" t="s">
+        <v>479</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>487</v>
+        <v>418</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>481</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>489</v>
+      <c r="B11" s="24" t="s">
+        <v>483</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>494</v>
+        <v>487</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>495</v>
+      <c r="B12" s="24" t="s">
+        <v>489</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>500</v>
+        <v>493</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>494</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>501</v>
+      <c r="B13" s="24" t="s">
+        <v>495</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>505</v>
+        <v>528</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>499</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>506</v>
+      <c r="B14" s="24" t="s">
+        <v>500</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>510</v>
+        <v>503</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>504</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>511</v>
+      <c r="B15" s="24" t="s">
+        <v>505</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>515</v>
+        <v>508</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>509</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>516</v>
+      <c r="B16" s="24" t="s">
+        <v>510</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>518</v>
+        <v>485</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>512</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>527</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>528</v>
+      <c r="B18" s="24" t="s">
+        <v>522</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>533</v>
+        <v>526</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6785,7 +6792,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6820,18 +6827,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,20 +6849,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>534</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6885,7 +6892,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -6908,264 +6915,264 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>541</v>
+      <c r="B10" s="24" t="s">
+        <v>535</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>543</v>
+        <v>153</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>537</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>545</v>
+      <c r="B11" s="24" t="s">
+        <v>539</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>550</v>
+        <v>543</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>544</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>551</v>
+      <c r="B12" s="24" t="s">
+        <v>545</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>553</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>555</v>
+        <v>548</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>549</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>556</v>
+      <c r="B13" s="24" t="s">
+        <v>550</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>560</v>
+        <v>588</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>554</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>561</v>
+      <c r="B14" s="24" t="s">
+        <v>555</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>566</v>
+        <v>559</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>560</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>567</v>
+      <c r="B15" s="24" t="s">
+        <v>561</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>571</v>
+        <v>564</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>565</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>572</v>
+      <c r="B16" s="24" t="s">
+        <v>566</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>577</v>
+        <v>570</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>571</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>579</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>583</v>
+        <v>576</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>577</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>578</v>
+      <c r="B18" s="24" t="s">
+        <v>572</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>587</v>
+        <v>580</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>581</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>590</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>593</v>
+        <v>586</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>587</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7174,7 +7181,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/LogixGo-Test-Cases.xlsx
+++ b/LogixGo-Test-Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyinlola/Desktop/ESIGELEC/Java Project/LogixGo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81086432-AAF4-F84C-9203-4FEE2C5D6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B7BB5-A849-0649-9729-32BFED5C2B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="636">
   <si>
     <t>ID</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Enter an invalid phone number (e.g., letters or short length) and click "Register"</t>
   </si>
   <si>
-    <t>Error message: "Please enter a valid phone number"</t>
-  </si>
-  <si>
     <t>Verify successful registration UI feedback</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
     <t>Leave the old password field empty and attempt to update</t>
   </si>
   <si>
-    <t>Error message: "Old password is required"</t>
-  </si>
-  <si>
     <t>PASSWORD_07</t>
   </si>
   <si>
@@ -748,9 +742,6 @@
     <t>Enter the correct old password but leave new password fields empty</t>
   </si>
   <si>
-    <t>Error message: "New password is required"</t>
-  </si>
-  <si>
     <t>PASSWORD_08</t>
   </si>
   <si>
@@ -1955,6 +1946,12 @@
   </si>
   <si>
     <t xml:space="preserve">Update form loads with appropriate fields based on role i.e.truck details only shown for driver </t>
+  </si>
+  <si>
+    <t>Error message: "Please enter a valid phone number (10 digits only)"</t>
+  </si>
+  <si>
+    <t>Error message: "Incorrect email or password"</t>
   </si>
 </sst>
 </file>
@@ -1965,9 +1962,16 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2157,108 +2161,111 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3113,7 +3120,1157 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="24" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="26" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
+  <dimension ref="B2:P17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="25"/>
+      <c r="P13" s="27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B366541-CA2B-CC4E-BB9D-E38E79E38E2B}">
+  <dimension ref="B2:K23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="21" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="23" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C509C-7F65-8048-97F5-DF460F44272B}">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3137,18 +4294,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,21 +4315,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3224,105 +4381,105 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>632</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>634</v>
+      <c r="G10" s="28" t="s">
+        <v>633</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
@@ -3330,25 +4487,25 @@
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
@@ -3356,51 +4513,51 @@
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
@@ -3408,468 +4565,159 @@
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
+        <v>168</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>58</v>
+        <v>172</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="12"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>70</v>
+        <v>176</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="12"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>72</v>
+        <v>176</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="26" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
-  <dimension ref="B2:P17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:16" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-      <c r="P13" s="27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+    <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3878,19 +4726,19 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B366541-CA2B-CC4E-BB9D-E38E79E38E2B}">
-  <dimension ref="B2:K23"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB0DB-3E25-784A-9BCC-E8826755E5DE}">
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3913,18 +4761,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,21 +4782,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4000,894 +4848,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>633</v>
+        <v>210</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="21" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="23" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C509C-7F65-8048-97F5-DF460F44272B}">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>635</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>636</v>
+      <c r="G10" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB0DB-3E25-784A-9BCC-E8826755E5DE}">
-  <dimension ref="B2:K19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -4895,25 +4902,25 @@
     </row>
     <row r="12" spans="2:11" ht="96" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="H12" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -4921,25 +4928,25 @@
     </row>
     <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="H13" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -4947,25 +4954,25 @@
     </row>
     <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
@@ -4973,25 +4980,25 @@
     </row>
     <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>230</v>
+        <v>254</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="8"/>
@@ -4999,25 +5006,25 @@
     </row>
     <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>234</v>
+        <v>255</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="8"/>
@@ -5025,25 +5032,25 @@
     </row>
     <row r="17" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -5051,25 +5058,25 @@
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="F18" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
@@ -5077,25 +5084,25 @@
     </row>
     <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="8"/>
@@ -5142,18 +5149,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,21 +5170,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5231,25 +5238,25 @@
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -5257,25 +5264,25 @@
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="H11" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -5283,25 +5290,25 @@
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -5309,25 +5316,25 @@
     </row>
     <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="H13" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -5335,25 +5342,25 @@
     </row>
     <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>334</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -5361,25 +5368,25 @@
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -5387,25 +5394,25 @@
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
@@ -5413,25 +5420,25 @@
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="H17" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>348</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
@@ -5439,25 +5446,25 @@
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
@@ -5465,25 +5472,25 @@
     </row>
     <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="H19" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
@@ -5491,25 +5498,25 @@
     </row>
     <row r="20" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="8"/>
@@ -5517,25 +5524,25 @@
     </row>
     <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="H21" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8"/>
@@ -5543,25 +5550,25 @@
     </row>
     <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="H22" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -5569,25 +5576,25 @@
     </row>
     <row r="23" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -5595,25 +5602,25 @@
     </row>
     <row r="24" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="H24" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -5621,25 +5628,25 @@
     </row>
     <row r="25" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="H25" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -5647,25 +5654,25 @@
     </row>
     <row r="26" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="H26" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>317</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
@@ -5673,25 +5680,25 @@
     </row>
     <row r="27" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>321</v>
-      </c>
       <c r="H27" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
@@ -5699,22 +5706,22 @@
     </row>
     <row r="28" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>29</v>
@@ -5730,7 +5737,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5765,18 +5772,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,21 +5793,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5854,25 +5861,25 @@
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>376</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -5880,25 +5887,25 @@
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="H11" s="24" t="s">
         <v>385</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>388</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -5906,25 +5913,25 @@
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>393</v>
-      </c>
       <c r="H12" s="24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -5932,25 +5939,25 @@
     </row>
     <row r="13" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="H13" s="24" t="s">
         <v>395</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>398</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -5958,25 +5965,25 @@
     </row>
     <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="H14" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -5984,25 +5991,25 @@
     </row>
     <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="H15" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -6010,25 +6017,25 @@
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="H16" s="24" t="s">
         <v>412</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>415</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
@@ -6051,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E3903-D23B-4C4C-9365-4BD973AD430F}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6075,18 +6082,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,21 +6103,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6164,25 +6171,25 @@
     </row>
     <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6190,25 +6197,25 @@
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="H11" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>425</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -6216,25 +6223,25 @@
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="H12" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>431</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -6242,25 +6249,25 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="H13" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>437</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -6268,25 +6275,25 @@
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="H14" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>442</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -6294,25 +6301,25 @@
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="H15" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -6320,25 +6327,25 @@
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -6346,25 +6353,25 @@
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>457</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>460</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
@@ -6372,25 +6379,25 @@
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="H18" s="24" t="s">
         <v>463</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>466</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
@@ -6398,25 +6405,25 @@
     </row>
     <row r="19" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>467</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>470</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
@@ -6429,7 +6436,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6464,18 +6471,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6485,21 +6492,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6553,25 +6560,25 @@
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6579,25 +6586,25 @@
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H11" s="24" t="s">
         <v>485</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -6605,25 +6612,25 @@
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="H12" s="24" t="s">
         <v>491</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>494</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -6631,25 +6638,25 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="H13" s="24" t="s">
         <v>496</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>499</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -6657,25 +6664,25 @@
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="H14" s="24" t="s">
         <v>501</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>504</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -6683,25 +6690,25 @@
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="H15" s="24" t="s">
         <v>506</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>509</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -6709,25 +6716,25 @@
     </row>
     <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -6735,25 +6742,25 @@
     </row>
     <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="H17" s="24" t="s">
         <v>518</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
@@ -6761,25 +6768,25 @@
     </row>
     <row r="18" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>527</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
@@ -6792,7 +6799,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6827,18 +6834,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6848,21 +6855,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6916,25 +6923,25 @@
     </row>
     <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6942,25 +6949,25 @@
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H11" s="24" t="s">
         <v>541</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>544</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -6968,25 +6975,25 @@
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="H12" s="24" t="s">
         <v>546</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>549</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -6994,25 +7001,25 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="H13" s="24" t="s">
         <v>551</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>554</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
@@ -7020,25 +7027,25 @@
     </row>
     <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="H14" s="24" t="s">
         <v>557</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>560</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -7046,25 +7053,25 @@
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="H15" s="24" t="s">
         <v>562</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>565</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
@@ -7072,25 +7079,25 @@
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>568</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>571</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
@@ -7098,25 +7105,25 @@
     </row>
     <row r="17" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="H17" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>577</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
@@ -7124,25 +7131,25 @@
     </row>
     <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -7150,25 +7157,25 @@
     </row>
     <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
@@ -7181,7 +7188,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/LogixGo-Test-Cases.xlsx
+++ b/LogixGo-Test-Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyinlola/Desktop/ESIGELEC/Java Project/LogixGo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B7BB5-A849-0649-9729-32BFED5C2B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52944876-2E89-2D44-B04E-766DD04C7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="customer_create_delivery" sheetId="14" r:id="rId5"/>
     <sheet name="view_deliveries" sheetId="15" r:id="rId6"/>
     <sheet name="assign_deliveries" sheetId="17" r:id="rId7"/>
-    <sheet name="schedule_doc" sheetId="18" r:id="rId8"/>
-    <sheet name="pending_missions" sheetId="19" r:id="rId9"/>
-    <sheet name="past_missions" sheetId="20" r:id="rId10"/>
+    <sheet name="view_and_reorder_routes" sheetId="22" r:id="rId8"/>
+    <sheet name="schedule_doc" sheetId="18" r:id="rId9"/>
+    <sheet name="pending_missions" sheetId="19" r:id="rId10"/>
+    <sheet name="past_missions" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="455">
   <si>
     <t>ID</t>
   </si>
@@ -106,36 +107,21 @@
     <t>Enter first name, last name, email, telephone, password, re-type password, and select "Customer" role</t>
   </si>
   <si>
-    <t>Valid customer data</t>
-  </si>
-  <si>
-    <t>Registration success message; user is redirected to login</t>
-  </si>
-  <si>
     <t>Verify successful registration for Scheduler</t>
   </si>
   <si>
     <t>Enter first name, last name, email, telephone, password, re-type password, and select "Scheduler" role</t>
   </si>
   <si>
-    <t>Valid scheduler data</t>
-  </si>
-  <si>
     <t>Verify successful registration for Driver</t>
   </si>
   <si>
     <t>Enter first name, last name, email, telephone, password, re-type password, and select "Driver" role; also input truck registration and capacity</t>
   </si>
   <si>
-    <t>Valid driver data (including truck details)</t>
-  </si>
-  <si>
     <t>Form loaded</t>
   </si>
   <si>
-    <t>Form ready for new input</t>
-  </si>
-  <si>
     <t>Verify error for missing required fields</t>
   </si>
   <si>
@@ -145,9 +131,6 @@
     <t>Leave one or more required fields empty and click "Register"</t>
   </si>
   <si>
-    <t>Missing data</t>
-  </si>
-  <si>
     <t>Error message: "Please fill all required fields"</t>
   </si>
   <si>
@@ -160,9 +143,6 @@
     <t>Email field filled</t>
   </si>
   <si>
-    <t>invalid-email</t>
-  </si>
-  <si>
     <t>Error message: "Please enter a valid email address"</t>
   </si>
   <si>
@@ -220,12 +200,6 @@
     <t>Enter a registered email and attempt to register</t>
   </si>
   <si>
-    <t>Duplicate email address</t>
-  </si>
-  <si>
-    <t>Error message: "Email already exists"</t>
-  </si>
-  <si>
     <t>Verify telephone number format validation</t>
   </si>
   <si>
@@ -235,18 +209,6 @@
     <t>Enter an invalid phone number (e.g., letters or short length) and click "Register"</t>
   </si>
   <si>
-    <t>Verify successful registration UI feedback</t>
-  </si>
-  <si>
-    <t>Complete the registration process for any role and submit</t>
-  </si>
-  <si>
-    <t>Valid input data</t>
-  </si>
-  <si>
-    <t>User sees a confirmation message with success details</t>
-  </si>
-  <si>
     <t>Enter an invalid email (e.g., invalid-email) and click "Register"</t>
   </si>
   <si>
@@ -259,18 +221,6 @@
     <t xml:space="preserve"> Verification of Registration Process</t>
   </si>
   <si>
-    <t>User redirected to dashboard page</t>
-  </si>
-  <si>
-    <t>Customer record created in database and user is redirected to dashboard page</t>
-  </si>
-  <si>
-    <t>Scheduler record created in database and user is redirected to dashboard page</t>
-  </si>
-  <si>
-    <t>Driver record created in database and user is redirected to dashboard page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Registration Process	</t>
   </si>
   <si>
@@ -307,9 +257,6 @@
     <t>REGISTER_11</t>
   </si>
   <si>
-    <t>REGISTER_12</t>
-  </si>
-  <si>
     <t>LOGIN_01</t>
   </si>
   <si>
@@ -331,15 +278,6 @@
     <t>Valid Customer account exists</t>
   </si>
   <si>
-    <t>Enter valid email and password for a Customer role and click "Login"</t>
-  </si>
-  <si>
-    <t>Email: customer@example.com, Password: Password123</t>
-  </si>
-  <si>
-    <t>Customer is redirected to their dashboard</t>
-  </si>
-  <si>
     <t>Customer session initialized</t>
   </si>
   <si>
@@ -352,15 +290,6 @@
     <t>Valid Scheduler account exists</t>
   </si>
   <si>
-    <t>Enter valid email and password for a Scheduler role and click "Login"</t>
-  </si>
-  <si>
-    <t>Email: scheduler@example.com, Password: Password123</t>
-  </si>
-  <si>
-    <t>Scheduler is redirected to their dashboard</t>
-  </si>
-  <si>
     <t>Scheduler session initialized</t>
   </si>
   <si>
@@ -373,15 +302,6 @@
     <t>Valid Driver account exists</t>
   </si>
   <si>
-    <t>Enter valid email and password for a Driver role and click "Login"</t>
-  </si>
-  <si>
-    <t>Email: driver@example.com, Password: Password123</t>
-  </si>
-  <si>
-    <t>Driver is redirected to their dashboard</t>
-  </si>
-  <si>
     <t>Driver session initialized</t>
   </si>
   <si>
@@ -397,9 +317,6 @@
     <t>Leave the email field empty, fill the password field, and click "Login"</t>
   </si>
   <si>
-    <t>Password: Password123</t>
-  </si>
-  <si>
     <t>Error message: "Email is required"</t>
   </si>
   <si>
@@ -415,9 +332,6 @@
     <t>Leave the password field empty, fill the email field, and click "Login"</t>
   </si>
   <si>
-    <t>Email: user@example.com</t>
-  </si>
-  <si>
     <t>Error message: "Password is required"</t>
   </si>
   <si>
@@ -427,12 +341,6 @@
     <t>Enter an invalid email format and click "Login"</t>
   </si>
   <si>
-    <t>Email: invalid-email, Password: Password123</t>
-  </si>
-  <si>
-    <t>Error message: "Invalid email format"</t>
-  </si>
-  <si>
     <t>LOGIN_08</t>
   </si>
   <si>
@@ -445,9 +353,6 @@
     <t>Enter incorrect email or password and click "Login"</t>
   </si>
   <si>
-    <t>Email: user@example.com, Password: WrongPassword123</t>
-  </si>
-  <si>
     <t>Error message: "Invalid email or password"</t>
   </si>
   <si>
@@ -484,9 +389,6 @@
     <t>Enter a new valid email address and save changes</t>
   </si>
   <si>
-    <t>Success message: "Details updated successfully"</t>
-  </si>
-  <si>
     <t>Email updated in the database</t>
   </si>
   <si>
@@ -508,45 +410,15 @@
     <t>Enter a new truck registration number and capacity, then save changes</t>
   </si>
   <si>
-    <t>Truck details updated in the database</t>
-  </si>
-  <si>
-    <t>Verify error for empty email field</t>
-  </si>
-  <si>
-    <t>Leave the email field empty and attempt to save changes</t>
-  </si>
-  <si>
-    <t>Email: Empty</t>
-  </si>
-  <si>
     <t>No changes saved</t>
   </si>
   <si>
-    <t>Enter an invalid email format and attempt to save changes</t>
-  </si>
-  <si>
-    <t>Verify error for empty phone number field</t>
-  </si>
-  <si>
-    <t>Leave the phone number field empty and attempt to save changes</t>
-  </si>
-  <si>
-    <t>Phone Number: Empty</t>
-  </si>
-  <si>
-    <t>Error message: "Phone number is required"</t>
-  </si>
-  <si>
     <t>Verify error for invalid phone number format</t>
   </si>
   <si>
     <t>Enter an invalid phone number (e.g., too short or containing letters) and save changes</t>
   </si>
   <si>
-    <t>Error message: "Invalid phone number format"</t>
-  </si>
-  <si>
     <t>Verify error for missing truck details (Driver)</t>
   </si>
   <si>
@@ -559,75 +431,12 @@
     <t>Error message: "Truck details are required for Driver role"</t>
   </si>
   <si>
-    <t>Verify error for invalid truck capacity (Driver)</t>
-  </si>
-  <si>
-    <t>Enter a non-numeric value for truck capacity and attempt to save changes</t>
-  </si>
-  <si>
-    <t>Error message: "Truck capacity must be a valid number"</t>
-  </si>
-  <si>
-    <t>Verify successful update for Customer</t>
-  </si>
-  <si>
-    <t>Customer role selected</t>
-  </si>
-  <si>
-    <t>Update email and phone number and save changes</t>
-  </si>
-  <si>
-    <t>Customer details updated</t>
-  </si>
-  <si>
-    <t>Verify successful update for Scheduler</t>
-  </si>
-  <si>
-    <t>Scheduler role selected</t>
-  </si>
-  <si>
-    <t>Scheduler details updated</t>
-  </si>
-  <si>
-    <t>Verify update functionality maintains session</t>
-  </si>
-  <si>
-    <t>Update details, save changes, and verify the session remains active</t>
-  </si>
-  <si>
-    <t>Session remains active, and updates are reflected on subsequent logins</t>
-  </si>
-  <si>
-    <t>Updated details saved</t>
-  </si>
-  <si>
-    <t>New Email: newemail@example.com</t>
-  </si>
-  <si>
-    <t>New Phone: +1234567890</t>
-  </si>
-  <si>
     <t>Truck Registration: TRUCK123; Capacity: 5000 Kg</t>
   </si>
   <si>
-    <t>Email: invalid-email</t>
-  </si>
-  <si>
     <t>Phone Number: 12345ABC</t>
   </si>
   <si>
-    <t>Truck Capacity: ABC</t>
-  </si>
-  <si>
-    <t>New Email: customernew@example.com; New Phone: +1234567890</t>
-  </si>
-  <si>
-    <t>New Email: schedulernew@example.com; New Phone: +1234567890</t>
-  </si>
-  <si>
-    <t>New Email: updateduser@example.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Details Update</t>
   </si>
   <si>
@@ -652,24 +461,6 @@
     <t>UPDATE_07</t>
   </si>
   <si>
-    <t>UPDATE_08</t>
-  </si>
-  <si>
-    <t>UPDATE_09</t>
-  </si>
-  <si>
-    <t>UPDATE_10</t>
-  </si>
-  <si>
-    <t>UPDATE_11</t>
-  </si>
-  <si>
-    <t>UPDATE_12</t>
-  </si>
-  <si>
-    <t>UPDATE_13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Password Update</t>
   </si>
   <si>
@@ -691,12 +482,6 @@
     <t>Enter the correct old password, a valid new password, and retype the new password</t>
   </si>
   <si>
-    <t>Success message: "Password updated successfully"</t>
-  </si>
-  <si>
-    <t>Password updated in the database</t>
-  </si>
-  <si>
     <t>PASSWORD_03</t>
   </si>
   <si>
@@ -721,9 +506,6 @@
     <t>Error message: "New passwords do not match"</t>
   </si>
   <si>
-    <t>PASSWORD_05</t>
-  </si>
-  <si>
     <t>PASSWORD_06</t>
   </si>
   <si>
@@ -742,21 +524,6 @@
     <t>Enter the correct old password but leave new password fields empty</t>
   </si>
   <si>
-    <t>PASSWORD_08</t>
-  </si>
-  <si>
-    <t>Verify session remains active after password update</t>
-  </si>
-  <si>
-    <t>Successfully update the password and continue using the application</t>
-  </si>
-  <si>
-    <t>Session remains active and changes are reflected</t>
-  </si>
-  <si>
-    <t>Updated password saved</t>
-  </si>
-  <si>
     <t>PASSWORD_09</t>
   </si>
   <si>
@@ -787,27 +554,9 @@
     <t>Old password invalid</t>
   </si>
   <si>
-    <t>Verify password length validation</t>
-  </si>
-  <si>
-    <t>Enter a new password that is shorter than the minimum allowed length</t>
-  </si>
-  <si>
-    <t>Error message: "Password must be at least [X] characters long"</t>
-  </si>
-  <si>
-    <t>Old Password: OldPass123; New Password: NewPass123; Retype New Password: NewPass123</t>
-  </si>
-  <si>
-    <t>Old Password: WrongPass123; New Password: NewPass123; Retype New Password: NewPass123</t>
-  </si>
-  <si>
     <t>Old Password: OldPass123; New Password: NewPass123; Retype New Password: NewPass321</t>
   </si>
   <si>
-    <t>Old Password: OldPass123; New Password: 123; Retype New Password: 123</t>
-  </si>
-  <si>
     <t>Old Password: Empty; New Password: NewPass123; Retype New Password: NewPass123</t>
   </si>
   <si>
@@ -832,9 +581,6 @@
     <t>Customer is logged in</t>
   </si>
   <si>
-    <t>Navigate to the "New Delivery" page</t>
-  </si>
-  <si>
     <t>New delivery form loads with all required fields and buttons</t>
   </si>
   <si>
@@ -844,27 +590,15 @@
     <t>New delivery page loaded</t>
   </si>
   <si>
-    <t>Select a product from the dropdown, enter quantity in Kg, and click "Add Product"</t>
-  </si>
-  <si>
-    <t>Product: Flour; Quantity: 10 Kg</t>
-  </si>
-  <si>
     <t>Product added to the list with correct details</t>
   </si>
   <si>
     <t>Product visible in the product list</t>
   </si>
   <si>
-    <t>Product selected from dropdown</t>
-  </si>
-  <si>
     <t>Product: Banana</t>
   </si>
   <si>
-    <t>User prompted to input quantity</t>
-  </si>
-  <si>
     <t>Verify successful update of product quantity</t>
   </si>
   <si>
@@ -874,9 +608,6 @@
     <t>Increase or decrease the quantity of an added product</t>
   </si>
   <si>
-    <t>Change quantity of Flour from 10 Kg to 15 Kg</t>
-  </si>
-  <si>
     <t>Updated quantity reflected in the product list</t>
   </si>
   <si>
@@ -919,30 +650,9 @@
     <t>Leave one or more address fields empty and attempt to proceed</t>
   </si>
   <si>
-    <t>Address Line 1: Empty; City: Lagos; State: Lagos; ZIP: 12345</t>
-  </si>
-  <si>
-    <t>Error message: "Please fill all required address fields"</t>
-  </si>
-  <si>
     <t>No order submitted</t>
   </si>
   <si>
-    <t>Verify successful delivery date selection</t>
-  </si>
-  <si>
-    <t>Select a valid delivery date from the date picker</t>
-  </si>
-  <si>
-    <t>Delivery Date: 2025-01-10</t>
-  </si>
-  <si>
-    <t>Selected date is displayed in the form</t>
-  </si>
-  <si>
-    <t>Date ready for order submission</t>
-  </si>
-  <si>
     <t>Verify error for invalid delivery date</t>
   </si>
   <si>
@@ -952,9 +662,6 @@
     <t>Delivery Date: 2024-12-31</t>
   </si>
   <si>
-    <t>Error message: "Please select a future date"</t>
-  </si>
-  <si>
     <t>Verify successful submission of order</t>
   </si>
   <si>
@@ -970,105 +677,12 @@
     <t>Success message: "Order submitted successfully"</t>
   </si>
   <si>
-    <t>Order details saved in the database</t>
-  </si>
-  <si>
-    <t>Verify total quantity calculation</t>
-  </si>
-  <si>
-    <t>Multiple products added to the list</t>
-  </si>
-  <si>
-    <t>Add multiple products and observe the total quantity calculation</t>
-  </si>
-  <si>
-    <t>Products: Flour 10 Kg, Banana 4 Kg; Expected Total: 14 Kg</t>
-  </si>
-  <si>
-    <t>Total quantity displayed correctly</t>
-  </si>
-  <si>
-    <t>Total matches added quantities</t>
-  </si>
-  <si>
-    <t>Verify error for missing order details</t>
-  </si>
-  <si>
-    <t>Attempt to submit an order without filling required fields</t>
-  </si>
-  <si>
-    <t>Missing: Address or Products or Date</t>
-  </si>
-  <si>
-    <t>Error message: "Please complete all required fields before submitting"</t>
-  </si>
-  <si>
-    <t>Products: Flour 10 Kg; Address: Partial</t>
-  </si>
-  <si>
-    <t>All fields reset to initial state</t>
-  </si>
-  <si>
-    <t>Verify back button clears all fields</t>
-  </si>
-  <si>
-    <t>Fill in some fields, click "Go back" and reclick "Create new delivery", and verify all fields are cleared</t>
-  </si>
-  <si>
-    <t>Verify popup for product quantity input appears</t>
-  </si>
-  <si>
-    <t>Select a product, click "Add Product," and observe the popup behavior</t>
-  </si>
-  <si>
-    <t>Popup appears with prompt to "Enter product quantity in Kg" and "OK" button</t>
-  </si>
-  <si>
     <t>Verify error for empty product quantity in popup</t>
   </si>
   <si>
     <t>Popup displayed after clicking "Add Product"</t>
   </si>
   <si>
-    <t>Leave the quantity field in the popup empty and click "OK"</t>
-  </si>
-  <si>
-    <t>Quantity: Empty</t>
-  </si>
-  <si>
-    <t>Error message in popup: "Please enter a valid product quantity"</t>
-  </si>
-  <si>
-    <t>Verify successful handling of popup with valid data</t>
-  </si>
-  <si>
-    <t>Enter a valid quantity in the popup and click "OK"</t>
-  </si>
-  <si>
-    <t>Product is added to the list</t>
-  </si>
-  <si>
-    <t>Product details saved</t>
-  </si>
-  <si>
-    <t>Verify popup closes on valid entry</t>
-  </si>
-  <si>
-    <t>Popup closes, and product is added</t>
-  </si>
-  <si>
-    <t>User returns to product selection form</t>
-  </si>
-  <si>
-    <t>Verify popup closes on cancel action</t>
-  </si>
-  <si>
-    <t>Click "Cancel" or close the popup without entering any quantity</t>
-  </si>
-  <si>
-    <t>Popup closes without adding any product</t>
-  </si>
-  <si>
     <t>Verify product list updates dynamically</t>
   </si>
   <si>
@@ -1090,18 +704,6 @@
     <t>Enter a non-numeric quantity in the popup and click "OK"</t>
   </si>
   <si>
-    <t>Error message in popup: "Quantity must be a valid number in Kg"</t>
-  </si>
-  <si>
-    <t>Quantity: 5 Kg</t>
-  </si>
-  <si>
-    <t>Quantity: 10 Kg</t>
-  </si>
-  <si>
-    <t>Products: Flour 10 Kg, Banana 4 Kg</t>
-  </si>
-  <si>
     <t>Quantity: ABC</t>
   </si>
   <si>
@@ -1141,27 +743,6 @@
     <t>CREATE_DELIVERY_12</t>
   </si>
   <si>
-    <t>CREATE_DELIVERY_13</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_14</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_15</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_16</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_17</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_18</t>
-  </si>
-  <si>
-    <t>CREATE_DELIVERY_19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Customer Viewing Deliveries</t>
   </si>
   <si>
@@ -1174,9 +755,6 @@
     <t>Customer is logged in and has orders</t>
   </si>
   <si>
-    <t>Navigate to the "Deliveries" page</t>
-  </si>
-  <si>
     <t>Deliveries page loads with a list of deliveries and associated details</t>
   </si>
   <si>
@@ -1192,12 +770,6 @@
     <t>Deliveries page loaded</t>
   </si>
   <si>
-    <t>Check the list of deliveries with "Not yet delivered" status</t>
-  </si>
-  <si>
-    <t>Delivery Data: 12/25/2008 17 Kg Not yet delivered</t>
-  </si>
-  <si>
     <t>Pending deliveries are displayed with correct details</t>
   </si>
   <si>
@@ -1213,9 +785,6 @@
     <t>Check the list of deliveries with "Delivered" status</t>
   </si>
   <si>
-    <t>Delivery Data: 12/25/2008 17 Kg Delivered</t>
-  </si>
-  <si>
     <t>Delivered orders are displayed with correct details</t>
   </si>
   <si>
@@ -1225,9 +794,6 @@
     <t>Verify functionality of "View" button for pending delivery</t>
   </si>
   <si>
-    <t>Click the "View" button for a delivery marked as "Not yet delivered"</t>
-  </si>
-  <si>
     <t>Detailed view of the delivery opens with appropriate fields</t>
   </si>
   <si>
@@ -1249,39 +815,12 @@
     <t>VIEW_DELIVERIES_06</t>
   </si>
   <si>
-    <t>Verify detailed view of delivered order</t>
-  </si>
-  <si>
     <t>Delivered order selected</t>
   </si>
   <si>
-    <t>Check details in the detailed view page, including product list, quantity, date, and address</t>
-  </si>
-  <si>
-    <t>Product Data: Rice 17 Kg, Flour 4 Kg, Banana 3 Kg, Tomato 5 Kg; Address: 87 rue Saint Sever</t>
-  </si>
-  <si>
-    <t>All details displayed accurately, including total quantity and address</t>
-  </si>
-  <si>
-    <t>Accurate breakdown of delivery details</t>
-  </si>
-  <si>
-    <t>VIEW_DELIVERIES_07</t>
-  </si>
-  <si>
     <t>Verify total quantity calculation in detailed view</t>
   </si>
   <si>
-    <t>Check the "Total Quantity" field in the detailed view</t>
-  </si>
-  <si>
-    <t>Products: Rice 17 Kg, Flour 4 Kg, Banana 3 Kg, Tomato 5 Kg; Total: 29 Kg</t>
-  </si>
-  <si>
-    <t>Total quantity is calculated and displayed correctly</t>
-  </si>
-  <si>
     <t>Total matches item quantities</t>
   </si>
   <si>
@@ -1294,9 +833,6 @@
     <t>Scheduler is logged in</t>
   </si>
   <si>
-    <t>Navigate to the "Assign Delivery" page</t>
-  </si>
-  <si>
     <t>Deliveries page loads with a list of unassigned deliveries and "Assign" buttons</t>
   </si>
   <si>
@@ -1327,9 +863,6 @@
     <t>Click "Assign" for a delivery when no suitable route exists</t>
   </si>
   <si>
-    <t>Error message: "No route available for date or weight. Create new route."</t>
-  </si>
-  <si>
     <t>Prompt to create a new route</t>
   </si>
   <si>
@@ -1354,138 +887,27 @@
     <t>ASSIGN_DELIVERY_05</t>
   </si>
   <si>
-    <t>Verify driver list filters out unavailable drivers</t>
-  </si>
-  <si>
-    <t>Click "Create new route" and view the driver dropdown</t>
-  </si>
-  <si>
-    <t>Only available drivers are listed</t>
-  </si>
-  <si>
-    <t>Driver list accurately filtered</t>
-  </si>
-  <si>
     <t>ASSIGN_DELIVERY_06</t>
   </si>
   <si>
     <t>Verify assigning delivery to an existing route</t>
   </si>
   <si>
-    <t>Route with capacity exists</t>
-  </si>
-  <si>
     <t>Click "Assign" for a delivery and select a suitable existing route</t>
   </si>
   <si>
     <t>Delivery is assigned to the selected route</t>
   </si>
   <si>
-    <t>Delivery marked as assigned</t>
-  </si>
-  <si>
-    <t>ASSIGN_DELIVERY_07</t>
-  </si>
-  <si>
-    <t>ASSIGN_DELIVERY_08</t>
-  </si>
-  <si>
-    <t>Verify assigning delivery confirmation prompt</t>
-  </si>
-  <si>
     <t>Route exists with sufficient capacity</t>
   </si>
   <si>
-    <t>Click "Assign" for a delivery and confirm assignment</t>
-  </si>
-  <si>
-    <t>Success message: "Delivery assigned successfully."</t>
-  </si>
-  <si>
-    <t>Delivery added to the selected route</t>
-  </si>
-  <si>
-    <t>ASSIGN_DELIVERY_09</t>
-  </si>
-  <si>
-    <t>Verify canceling delivery assignment confirmation</t>
-  </si>
-  <si>
-    <t>Click "Assign" for a delivery and cancel at the confirmation prompt</t>
-  </si>
-  <si>
-    <t>Assignment is canceled; no changes made</t>
-  </si>
-  <si>
-    <t>Delivery remains unassigned</t>
-  </si>
-  <si>
-    <t>ASSIGN_DELIVERY_10</t>
-  </si>
-  <si>
-    <t>Verify detailed view of existing route</t>
-  </si>
-  <si>
-    <t>Existing route available</t>
-  </si>
-  <si>
-    <t>Click the "View" button for a route</t>
-  </si>
-  <si>
-    <t>Route details are displayed, including deliveries assigned to the route</t>
-  </si>
-  <si>
-    <t>Route details accessible</t>
-  </si>
-  <si>
-    <t>Verify successful assignment updates route capacity</t>
-  </si>
-  <si>
-    <t>Assign a delivery to an existing route and check the updated capacity</t>
-  </si>
-  <si>
-    <t>Route capacity is updated based on the assigned delivery</t>
-  </si>
-  <si>
-    <t>Updated route capacity saved</t>
-  </si>
-  <si>
-    <t>Delivery: 12/25/2008 17 Kg</t>
-  </si>
-  <si>
-    <t>Date: 12/25/2008; Driver: John Doe</t>
-  </si>
-  <si>
-    <t>Drivers: John Doe (available), Mary Jane (unavailable)</t>
-  </si>
-  <si>
-    <t>Route: Driver: John Doe, Capacity: 150 Kg, Date: 12/25/2008</t>
-  </si>
-  <si>
-    <t>Route: Driver: John Doe, Capacity: 150 Kg; Confirmation: "Yes"</t>
-  </si>
-  <si>
-    <t>Route: Driver: John Doe, Capacity: 150 Kg; Confirmation: "Cancel"</t>
-  </si>
-  <si>
-    <t>Initial Capacity: 150 Kg; Delivery: 17 Kg; Remaining Capacity: 133 Kg</t>
-  </si>
-  <si>
     <t>Verification of Scheduler Generating Schedule Doc</t>
   </si>
   <si>
     <t>SCHEDULE_DOC_01</t>
   </si>
   <si>
-    <t>Verify schedule generation page loads correctly</t>
-  </si>
-  <si>
-    <t>Navigate to the "Generate Schedule" page</t>
-  </si>
-  <si>
-    <t>Page loads with date picker and "Generate" button</t>
-  </si>
-  <si>
     <t>SCHEDULE_DOC_02</t>
   </si>
   <si>
@@ -1495,33 +917,12 @@
     <t>Assignments exist for the selected date</t>
   </si>
   <si>
-    <t>Select a valid date from the date picker and click "Generate"</t>
-  </si>
-  <si>
     <t>Word document is generated successfully with correct format</t>
   </si>
   <si>
-    <t>Document available for download</t>
-  </si>
-  <si>
     <t>SCHEDULE_DOC_03</t>
   </si>
   <si>
-    <t>Verify error for no assignments on selected date</t>
-  </si>
-  <si>
-    <t>No assignments exist for the selected date</t>
-  </si>
-  <si>
-    <t>Select a date with no assignments and click "Generate"</t>
-  </si>
-  <si>
-    <t>Error message: "No assignments available for the selected date."</t>
-  </si>
-  <si>
-    <t>No document generated</t>
-  </si>
-  <si>
     <t>SCHEDULE_DOC_04</t>
   </si>
   <si>
@@ -1531,15 +932,9 @@
     <t>Generate a document and inspect the title</t>
   </si>
   <si>
-    <t>Title is "[12/25/2008]" in bold and justified alignment</t>
-  </si>
-  <si>
     <t>Title displayed correctly</t>
   </si>
   <si>
-    <t>SCHEDULE_DOC_05</t>
-  </si>
-  <si>
     <t>Verify document body format</t>
   </si>
   <si>
@@ -1552,93 +947,9 @@
     <t>Missions correctly listed</t>
   </si>
   <si>
-    <t>SCHEDULE_DOC_06</t>
-  </si>
-  <si>
-    <t>Verify mission details accuracy</t>
-  </si>
-  <si>
-    <t>Generate a document and verify mission details match database records</t>
-  </si>
-  <si>
-    <t>Document accurately reflects assignments for the selected date</t>
-  </si>
-  <si>
-    <t>Accurate schedule document</t>
-  </si>
-  <si>
-    <t>SCHEDULE_DOC_07</t>
-  </si>
-  <si>
-    <t>Verify warehouse address inclusion</t>
-  </si>
-  <si>
-    <t>Generate a document and verify the warehouse address is listed at the start and end of each mission</t>
-  </si>
-  <si>
-    <t>Each mission starts and ends with the warehouse address</t>
-  </si>
-  <si>
-    <t>Warehouse address included</t>
-  </si>
-  <si>
-    <t>SCHEDULE_DOC_08</t>
-  </si>
-  <si>
-    <t>Verify document for multiple missions</t>
-  </si>
-  <si>
-    <t>Multiple assignments exist for the date</t>
-  </si>
-  <si>
-    <t>Generate a document for a date with multiple missions</t>
-  </si>
-  <si>
-    <t>Missions: Multiple drivers and routes</t>
-  </si>
-  <si>
-    <t>Document contains all missions, formatted and listed clearly</t>
-  </si>
-  <si>
-    <t>Complete schedule generated</t>
-  </si>
-  <si>
-    <t>SCHEDULE_DOC_09</t>
-  </si>
-  <si>
-    <t>Document generated</t>
-  </si>
-  <si>
-    <t>Verify document name includes date</t>
-  </si>
-  <si>
-    <t>Check the name of the downloaded document</t>
-  </si>
-  <si>
-    <t>File name matches the selected date</t>
-  </si>
-  <si>
-    <t>File named correctly</t>
-  </si>
-  <si>
-    <t>Date: 12/25/2008</t>
-  </si>
-  <si>
-    <t>Date: 01/01/2025</t>
-  </si>
-  <si>
     <t>Missions: Driver: John Doe; Route: Warehouse -&gt; Address1 -&gt; Address2 -&gt; Warehouse</t>
   </si>
   <si>
-    <t>Driver: John Doe; Route: Warehouse -&gt; Address1 -&gt; Address2 -&gt; Warehouse; Date: 12/25/2008</t>
-  </si>
-  <si>
-    <t>Warehouse Address: 123 Warehouse Lane</t>
-  </si>
-  <si>
-    <t>Date: 12/25/2008; File Name: Schedule_12_25_2008.docx</t>
-  </si>
-  <si>
     <t>Verification of Driver Viewing Pending Missions</t>
   </si>
   <si>
@@ -1648,30 +959,15 @@
     <t>Verify pending missions page loads correctly</t>
   </si>
   <si>
-    <t>Navigate to the "Pending Missions" page</t>
-  </si>
-  <si>
     <t>Pending missions page loads with a list of missions and associated details</t>
   </si>
   <si>
     <t>PENDING_MISSIONS_02</t>
   </si>
   <si>
-    <t>Verify display of total weight for each mission</t>
-  </si>
-  <si>
     <t>Pending missions exist</t>
   </si>
   <si>
-    <t>Check the total weight displayed for each mission</t>
-  </si>
-  <si>
-    <t>Total weight is displayed accurately for each mission</t>
-  </si>
-  <si>
-    <t>Correct weight shown</t>
-  </si>
-  <si>
     <t>PENDING_MISSIONS_03</t>
   </si>
   <si>
@@ -1693,126 +989,27 @@
     <t>Verify marking a mission as completed</t>
   </si>
   <si>
-    <t>Click the "Mark as completed" button for a mission and confirm</t>
-  </si>
-  <si>
     <t>Mission is marked as completed and removed from pending list</t>
   </si>
   <si>
-    <t>Mission updated as completed</t>
-  </si>
-  <si>
     <t>PENDING_MISSIONS_05</t>
   </si>
   <si>
-    <t>Verify confirmation prompt for completing a mission</t>
-  </si>
-  <si>
-    <t>Click "Mark as completed" and observe the confirmation prompt</t>
-  </si>
-  <si>
-    <t>Confirmation: "Are you sure you want to mark all deliveries in this mission as completed?"</t>
-  </si>
-  <si>
-    <t>Prompt displays with "Yes" and "Cancel" buttons</t>
-  </si>
-  <si>
-    <t>User can confirm or cancel</t>
-  </si>
-  <si>
-    <t>PENDING_MISSIONS_06</t>
-  </si>
-  <si>
     <t>Verify canceling mission completion</t>
   </si>
   <si>
-    <t>Click "Mark as completed" and select "Cancel"</t>
-  </si>
-  <si>
     <t>Mission remains in the pending list</t>
   </si>
   <si>
     <t>No changes made to mission status</t>
   </si>
   <si>
-    <t>PENDING_MISSIONS_07</t>
-  </si>
-  <si>
-    <t>PENDING_MISSIONS_08</t>
-  </si>
-  <si>
-    <t>Verify mission completion updates status</t>
-  </si>
-  <si>
-    <t>Mark a mission as completed and verify its status</t>
-  </si>
-  <si>
-    <t>Mission is no longer listed under pending missions</t>
-  </si>
-  <si>
-    <t>Mission moved to completed missions list</t>
-  </si>
-  <si>
-    <t>PENDING_MISSIONS_09</t>
-  </si>
-  <si>
-    <t>Verify mission details display correct deliveries</t>
-  </si>
-  <si>
-    <t>Mission details opened</t>
-  </si>
-  <si>
-    <t>View delivery details within a mission</t>
-  </si>
-  <si>
-    <t>Delivery details are displayed accurately</t>
-  </si>
-  <si>
     <t>Delivery details accessible</t>
   </si>
   <si>
-    <t>PENDING_MISSIONS_10</t>
-  </si>
-  <si>
-    <t>Verify handling of multiple pending missions</t>
-  </si>
-  <si>
-    <t>Multiple missions exist</t>
-  </si>
-  <si>
-    <t>View the pending missions page and interact with multiple missions</t>
-  </si>
-  <si>
-    <t>All missions are displayed, and actions are functional</t>
-  </si>
-  <si>
-    <t>Pending missions list remains consistent</t>
-  </si>
-  <si>
-    <t>Verify error for empty pending missions page</t>
-  </si>
-  <si>
-    <t>No pending missions exist</t>
-  </si>
-  <si>
-    <t>Message displayed: "You have no pending missions."</t>
-  </si>
-  <si>
-    <t>Empty pending missions list</t>
-  </si>
-  <si>
     <t>Mission Data: Total weight: 150 Kg; Date: 12/25/2008</t>
   </si>
   <si>
-    <t>Mission Data: Driver: John Doe; Total weight: 150 Kg; Deliveries: 3</t>
-  </si>
-  <si>
-    <t>Deliveries: 12/25/2008 17 Kg, 87 rue Saint Sever</t>
-  </si>
-  <si>
-    <t>Missions: Total weight: 150 Kg; Date: 12/25/2008 (x3)</t>
-  </si>
-  <si>
     <t>Verification of Driver Viewing Past Missions</t>
   </si>
   <si>
@@ -1822,9 +1019,6 @@
     <t>Verify past missions page loads correctly</t>
   </si>
   <si>
-    <t>Navigate to the "Past Missions" page</t>
-  </si>
-  <si>
     <t>Past missions page loads with a list of completed missions</t>
   </si>
   <si>
@@ -1888,63 +1082,15 @@
     <t>No past missions exist</t>
   </si>
   <si>
-    <t>Message displayed: "You have no past missions."</t>
-  </si>
-  <si>
     <t>No past missions displayed</t>
   </si>
   <si>
-    <t>PAST_MISSIONS_06</t>
-  </si>
-  <si>
-    <t>PAST_MISSIONS_07</t>
-  </si>
-  <si>
-    <t>Verify accurate total weight calculation in past missions</t>
-  </si>
-  <si>
-    <t>View the total weight for a past mission</t>
-  </si>
-  <si>
-    <t>Mission Data: Deliveries: 17 Kg, 10 Kg, 23 Kg; Total Weight: 50 Kg</t>
-  </si>
-  <si>
-    <t>Total weight displayed matches sum of deliveries</t>
-  </si>
-  <si>
-    <t>Accurate weight displayed</t>
-  </si>
-  <si>
-    <t>Verify no duplicate entries for past missions</t>
-  </si>
-  <si>
-    <t>Check the list of past missions for duplicate entries</t>
-  </si>
-  <si>
-    <t>Missions: Unique missions only</t>
-  </si>
-  <si>
-    <t>No duplicate missions are displayed</t>
-  </si>
-  <si>
-    <t>List consistency maintained</t>
-  </si>
-  <si>
     <t>ßßß</t>
   </si>
   <si>
-    <t>Open the registration page by clicking on "signup now" from the login page</t>
-  </si>
-  <si>
-    <t>While on the start page</t>
-  </si>
-  <si>
     <t>All input fields are initially empty</t>
   </si>
   <si>
-    <t>Click the "Update Details" button</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update form loads with appropriate fields based on role i.e.truck details only shown for driver </t>
   </si>
   <si>
@@ -1952,6 +1098,324 @@
   </si>
   <si>
     <t>Error message: "Incorrect email or password"</t>
+  </si>
+  <si>
+    <t>Open the registration page by clicking on "Not a member? Sign up" from the login page. If a user is currently logged in, log them out by clicking the "log out" button</t>
+  </si>
+  <si>
+    <t>email: customer11@gmail.com
+password: mypassword11</t>
+  </si>
+  <si>
+    <t>email: invalid-email</t>
+  </si>
+  <si>
+    <t>email: scheduler11@gmail.com
+password: mypassword11</t>
+  </si>
+  <si>
+    <t>email: driver11@gmail.com
+password: mypassword11</t>
+  </si>
+  <si>
+    <t>Error message: "Email already exist"</t>
+  </si>
+  <si>
+    <t>Open the login page by running the app. If a user is currently logged in, log them out by clicking the "log out" button</t>
+  </si>
+  <si>
+    <t>email: customer@gmail.com</t>
+  </si>
+  <si>
+    <t>User is redirected to home page</t>
+  </si>
+  <si>
+    <t>User is redirected to customer home page. Visible buttons are "Create new delivery" and "View deliveries"</t>
+  </si>
+  <si>
+    <t>Enter valid email and password for a Customer role and click "Login". If a user is currently logged in, log them out by clicking the "log out" button</t>
+  </si>
+  <si>
+    <t>Enter valid email and password for a Scheduler role and click "Login". If a user is currently logged in, log them out by clicking the "log out" button</t>
+  </si>
+  <si>
+    <t>Enter valid email and password for a Driver role and click "Login". If a user is currently logged in, log them out by clicking the "log out" button</t>
+  </si>
+  <si>
+    <t>User is redirected to scheduler home page. Visible buttons are "Assign Delivery" and "View Routes"</t>
+  </si>
+  <si>
+    <t>User is redirected to driver home page. Visible buttons are "View pending missions" and "View past missions"</t>
+  </si>
+  <si>
+    <t>email: user@example.com</t>
+  </si>
+  <si>
+    <t>email: customer11@gmail.com
+password: 12345</t>
+  </si>
+  <si>
+    <t>email: customer11</t>
+  </si>
+  <si>
+    <t>Password: password123</t>
+  </si>
+  <si>
+    <t>password: mypassword11</t>
+  </si>
+  <si>
+    <t>New Phone: 1234567890</t>
+  </si>
+  <si>
+    <t>Customer record created in database and user is redirected to home page</t>
+  </si>
+  <si>
+    <t>Scheduler record created in database and user is redirected to home page</t>
+  </si>
+  <si>
+    <t>Driver record created in database and user is redirected to home page</t>
+  </si>
+  <si>
+    <t>Record updated in database and user is redirected to home page</t>
+  </si>
+  <si>
+    <t>Verify error for empty field</t>
+  </si>
+  <si>
+    <t>Leave one or more required fields empty and click "Save"</t>
+  </si>
+  <si>
+    <t>new email: newemail@gmail.com</t>
+  </si>
+  <si>
+    <t>In the home page, click the "Update Details" button</t>
+  </si>
+  <si>
+    <t>Driver logged in</t>
+  </si>
+  <si>
+    <t>Password updated in database and user is redirected to update details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is redirected to home page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is redirected to update details page. </t>
+  </si>
+  <si>
+    <t>Click on "Create new delivery" page from the homepage</t>
+  </si>
+  <si>
+    <t>Select a product from the dropdown, enter quantity, and click "Add Product"</t>
+  </si>
+  <si>
+    <t>Leave the quantity field in the popup empty and click "Add Product"</t>
+  </si>
+  <si>
+    <t>Error message in popup: "Quantity must be tetween 1 - 100"</t>
+  </si>
+  <si>
+    <t>Delivery Details page loaded after clicking "Continue" in New Delivery page</t>
+  </si>
+  <si>
+    <t>Verify back button loads entered data</t>
+  </si>
+  <si>
+    <t>Click "Go back" from the Delivery Details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Details page loaded  </t>
+  </si>
+  <si>
+    <t>All data entered are retained</t>
+  </si>
+  <si>
+    <t>Error message: "Selected date is before today. Please choose a valid date"</t>
+  </si>
+  <si>
+    <t>Order details saved in the database and user is redirected to home page</t>
+  </si>
+  <si>
+    <t>On the homepage, click "View Deliveries"</t>
+  </si>
+  <si>
+    <t>Check the list of deliveries with "Pending" status</t>
+  </si>
+  <si>
+    <t>Click the "View" button for a delivery marked as "Pending"</t>
+  </si>
+  <si>
+    <t>Check the "Total weight" field in the detailed view</t>
+  </si>
+  <si>
+    <t>Total weight is calculated and displayed correctly</t>
+  </si>
+  <si>
+    <t>email: scheduler@gmail.com
+password: pw</t>
+  </si>
+  <si>
+    <t>Assign Delivery page loads correctly</t>
+  </si>
+  <si>
+    <t>From the homepage, click on "Assign Delivery" button</t>
+  </si>
+  <si>
+    <t>Error message: "No route available for delivery. Create new route"</t>
+  </si>
+  <si>
+    <t>Delivery marked as assigned and removed from list</t>
+  </si>
+  <si>
+    <t>Verify assigning delivery to an existing route with insufficient capacity</t>
+  </si>
+  <si>
+    <t>Route exists with insufficient capacity</t>
+  </si>
+  <si>
+    <t>Click "Assign" for a delivery and select an existing route with insufficient capacity</t>
+  </si>
+  <si>
+    <t>Error message: "Available capacity in the route is less than the total weight of the delivery"</t>
+  </si>
+  <si>
+    <t>Delivery is not assigned</t>
+  </si>
+  <si>
+    <t>From the homepage, click on "View Routes" button</t>
+  </si>
+  <si>
+    <t>Verify Routes page loads correctly</t>
+  </si>
+  <si>
+    <t>Page loads with list of routes and "Generate schedule doc" button</t>
+  </si>
+  <si>
+    <t>Click "Generate schedule doc" buttonand select a valid date</t>
+  </si>
+  <si>
+    <t>Document downloaded to folder</t>
+  </si>
+  <si>
+    <t>Title is in bold and justified alignment</t>
+  </si>
+  <si>
+    <t>email: driver@gmail.com
+password: pw</t>
+  </si>
+  <si>
+    <t>On the homepage, click on "View pending missions" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the "Pending Missions" page, click the "Mark as delivered" button for a mission and confirm. Select "Yes" when dialog pops up </t>
+  </si>
+  <si>
+    <t>Click "Mark as delivered" and select "No"</t>
+  </si>
+  <si>
+    <t>Mission updated as completed and removed from list</t>
+  </si>
+  <si>
+    <t>On the homepage, click on "View past missions" button</t>
+  </si>
+  <si>
+    <t>Message displayed: "No data available for driver"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verification of Scheduler Viewing and Reordering Routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verification of Scheduler Viewing and Reordering Routes	</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_01</t>
+  </si>
+  <si>
+    <t>Verify Route Details page loads correctly</t>
+  </si>
+  <si>
+    <t>From the homepage, click on 'View Routes' button</t>
+  </si>
+  <si>
+    <t>Page loads with list of routes</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_02</t>
+  </si>
+  <si>
+    <t>Scheduler is logged in and route details exist</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_03</t>
+  </si>
+  <si>
+    <t>Verify error message when no route data is available</t>
+  </si>
+  <si>
+    <t>Scheduler is logged in with no route details</t>
+  </si>
+  <si>
+    <t>Error message: 'No data available for route'</t>
+  </si>
+  <si>
+    <t>Page ready for new route data</t>
+  </si>
+  <si>
+    <t>Verify Reorder Route page loads correctly</t>
+  </si>
+  <si>
+    <t>From the homepage, click on 'Reorder Routes' button</t>
+  </si>
+  <si>
+    <t>Page loads with route details and reorder options</t>
+  </si>
+  <si>
+    <t>Verify validation for duplicate order values in reordering</t>
+  </si>
+  <si>
+    <t>Change order values for two addresses to the same value and click 'Save route order'</t>
+  </si>
+  <si>
+    <t>Error message: 'Ensure all addresses are filled correctly from 1 to maxOrder'</t>
+  </si>
+  <si>
+    <t>Error message displayed, changes not saved</t>
+  </si>
+  <si>
+    <t>Verify successful update of route order</t>
+  </si>
+  <si>
+    <t>Change order values for all addresses correctly and click 'Save route order'</t>
+  </si>
+  <si>
+    <t>Route order is updated successfully and saved in the database</t>
+  </si>
+  <si>
+    <t>Route order updated and displayed correctly</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_04</t>
+  </si>
+  <si>
+    <t>Verify Route Details are displayed for valid route data</t>
+  </si>
+  <si>
+    <t>Scheduler is logged in and valid route data exists</t>
+  </si>
+  <si>
+    <t>Open the 'View Routes' page and select a route with data</t>
+  </si>
+  <si>
+    <t>Route details are displayed with address and stop order</t>
+  </si>
+  <si>
+    <t>Route details are visible</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_05</t>
+  </si>
+  <si>
+    <t>VIEW_ROUTE_06</t>
   </si>
 </sst>
 </file>
@@ -1962,9 +1426,23 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2045,6 +1523,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2161,115 +1646,136 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2360,6 +1866,61 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DEEBE4-404D-4242-9FB6-0D82653B4EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087226" y="672417"/>
+          <a:ext cx="1758949" cy="362576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2764,7 +2325,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A42EAC-C269-E14F-9A21-B8FDC9DD0EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AEB332-233A-5449-BA22-5BC36E4C6665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2347,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087226" y="672417"/>
+          <a:off x="18386426" y="672417"/>
           <a:ext cx="1758949" cy="362576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2819,7 +2380,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DEEBE4-404D-4242-9FB6-0D82653B4EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A42EAC-C269-E14F-9A21-B8FDC9DD0EB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,22 +2679,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946D6DD-F2C7-406F-8F9E-1951E0DB6A07}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -3144,18 +2705,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3165,21 +2726,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3231,329 +2792,299 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F16" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="D17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="F17" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>634</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="24" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="26" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
+      <c r="F20" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="23" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="25" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3562,7 +3093,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3570,23 +3101,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
-  <dimension ref="B2:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2939A36-89CF-7543-B5F9-63CA5DBC4DC4}">
+  <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -3597,18 +3387,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3618,21 +3408,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -3684,79 +3474,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>591</v>
+        <v>323</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>416</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>593</v>
+        <v>324</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>594</v>
+        <v>325</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>595</v>
+        <v>326</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>596</v>
+        <v>327</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>585</v>
+        <v>328</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>598</v>
+        <v>329</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>599</v>
+        <v>330</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>600</v>
+        <v>331</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>601</v>
+        <v>332</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>596</v>
+        <v>327</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>602</v>
+        <v>333</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>603</v>
+        <v>334</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>604</v>
+        <v>335</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>605</v>
+        <v>336</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -3764,119 +3554,67 @@
     </row>
     <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>606</v>
+        <v>337</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>607</v>
+        <v>338</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>608</v>
+        <v>339</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>587</v>
+        <v>340</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>574</v>
+        <v>319</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
       <c r="P13" s="27" t="s">
-        <v>628</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>611</v>
+        <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>612</v>
+        <v>343</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>592</v>
+        <v>344</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>421</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>614</v>
+      <c r="G14" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>615</v>
+        <v>345</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="2:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+    <row r="15" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3885,7 +3623,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3896,20 +3634,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B366541-CA2B-CC4E-BB9D-E38E79E38E2B}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="27.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -3920,18 +3657,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3941,21 +3678,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4007,27 +3744,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>630</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>357</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>631</v>
+        <v>347</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
@@ -4035,25 +3772,25 @@
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
@@ -4061,25 +3798,25 @@
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>364</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
@@ -4087,155 +3824,155 @@
     </row>
     <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>365</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="I13" s="33"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>366</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>635</v>
+        <v>101</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>369</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
@@ -4268,22 +4005,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C509C-7F65-8048-97F5-DF460F44272B}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -4294,18 +4031,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4315,21 +4052,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4381,343 +4118,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>632</v>
+        <v>110</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>633</v>
+        <v>348</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="12"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>382</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>146</v>
+        <v>371</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>382</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>151</v>
+        <v>134</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>156</v>
+        <v>111</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="I14" s="8"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>188</v>
+        <v>125</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>380</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4726,7 +4305,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4735,22 +4314,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB0DB-3E25-784A-9BCC-E8826755E5DE}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -4761,18 +4340,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4782,21 +4361,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -4848,265 +4427,209 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>215</v>
+        <v>147</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>220</v>
+        <v>151</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>249</v>
+        <v>171</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="8"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>144</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>34</v>
+        <v>173</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="8"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>250</v>
+        <v>162</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="8"/>
       <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5123,22 +4646,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D294CC8-3045-6A44-A680-BA424C17C61B}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -5149,18 +4672,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5170,21 +4693,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5236,499 +4759,317 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>177</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>352</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>180</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>325</v>
+        <v>180</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>329</v>
+        <v>214</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>357</v>
+        <v>224</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>331</v>
+        <v>217</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>333</v>
+        <v>219</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>350</v>
+        <v>186</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>336</v>
+        <v>187</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>339</v>
+        <v>190</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="8"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>342</v>
+        <v>194</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="8"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>348</v>
+        <v>228</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>392</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>363</v>
+        <v>230</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>281</v>
+        <v>204</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>393</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="8"/>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>285</v>
+        <v>206</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B26" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5737,7 +5078,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5746,22 +5087,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45558C61-B90E-A749-B1E0-1A1A268C7B49}">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -5772,18 +5113,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5793,21 +5134,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -5859,187 +5200,161 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>235</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>352</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>383</v>
+        <v>240</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>386</v>
+        <v>243</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>389</v>
+        <v>245</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>391</v>
+        <v>247</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>392</v>
+        <v>248</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>383</v>
+        <v>240</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>394</v>
+        <v>249</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>397</v>
+        <v>252</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>389</v>
+        <v>253</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>401</v>
+        <v>257</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>405</v>
+        <v>256</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>399</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6048,6 +5363,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6056,22 +5372,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E3903-D23B-4C4C-9365-4BD973AD430F}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -6082,18 +5398,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6103,21 +5419,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6169,79 +5485,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>374</v>
+        <v>260</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>401</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>261</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>400</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>468</v>
+        <v>265</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>421</v>
+        <v>266</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>423</v>
+        <v>268</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>425</v>
+        <v>270</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>427</v>
+        <v>271</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>403</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -6249,51 +5565,51 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>431</v>
+        <v>275</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>469</v>
+        <v>276</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>436</v>
+        <v>281</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>431</v>
+        <v>284</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>470</v>
+        <v>282</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>439</v>
+        <v>283</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>404</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -6301,133 +5617,29 @@
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>445</v>
+        <v>280</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>409</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6436,7 +5648,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6444,23 +5656,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9742DE-70B7-2F44-9505-6FF465DB9C27}">
-  <dimension ref="B2:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC685776-1BE4-864A-9611-E23195FA5C37}">
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -6471,18 +5683,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6492,21 +5704,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6558,79 +5770,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>477</v>
+        <v>425</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>426</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>261</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>400</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>484</v>
+        <v>427</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>434</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>487</v>
+        <v>431</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>526</v>
+        <v>449</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>491</v>
+        <v>451</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -6638,51 +5850,51 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>482</v>
+        <v>261</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>525</v>
+        <v>437</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>496</v>
+        <v>237</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>501</v>
+        <v>440</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>442</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
@@ -6690,107 +5902,29 @@
     </row>
     <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>506</v>
+        <v>454</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>446</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6799,7 +5933,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6807,23 +5941,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2939A36-89CF-7543-B5F9-63CA5DBC4DC4}">
-  <dimension ref="B2:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9742DE-70B7-2F44-9505-6FF465DB9C27}">
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -6834,18 +5968,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6855,21 +5989,21 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="E7" s="22"/>
@@ -6921,79 +6055,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>533</v>
+        <v>286</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>411</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>535</v>
+        <v>261</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>412</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>536</v>
+        <v>287</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>537</v>
+        <v>288</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>585</v>
+        <v>289</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>541</v>
+        <v>290</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>414</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>542</v>
+        <v>291</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>543</v>
+        <v>293</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>538</v>
+        <v>289</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>545</v>
+        <v>294</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>415</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>546</v>
+        <v>295</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
@@ -7001,185 +6135,29 @@
     </row>
     <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>548</v>
+        <v>296</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>538</v>
+        <v>289</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>549</v>
+        <v>297</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>550</v>
+        <v>300</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>551</v>
+        <v>299</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7188,7 +6166,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/LogixGo-Test-Cases.xlsx
+++ b/LogixGo-Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyinlola/Desktop/ESIGELEC/Java Project/LogixGo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52944876-2E89-2D44-B04E-766DD04C7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7286759-F431-6B4C-ABBD-5D499C4265DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="448">
   <si>
     <t>ID</t>
   </si>
@@ -428,9 +428,6 @@
     <t>Truck Registration: Empty or Capacity: Empty</t>
   </si>
   <si>
-    <t>Error message: "Truck details are required for Driver role"</t>
-  </si>
-  <si>
     <t>Truck Registration: TRUCK123; Capacity: 5000 Kg</t>
   </si>
   <si>
@@ -629,9 +626,6 @@
     <t>No product added</t>
   </si>
   <si>
-    <t>Verify successful entry of delivery address details</t>
-  </si>
-  <si>
     <t>Enter all delivery address details and proceed</t>
   </si>
   <si>
@@ -641,9 +635,6 @@
     <t>Address details saved successfully</t>
   </si>
   <si>
-    <t>Address ready for order submission</t>
-  </si>
-  <si>
     <t>Verify error for missing address fields</t>
   </si>
   <si>
@@ -665,18 +656,6 @@
     <t>Verify successful submission of order</t>
   </si>
   <si>
-    <t>All fields filled correctly</t>
-  </si>
-  <si>
-    <t>Add products, enter address details, select a delivery date, and click "Send Order"</t>
-  </si>
-  <si>
-    <t>Products: Flour 10 Kg, Banana 4 Kg; Total Quantity: 14 Kg; Address: Complete; Date: Valid</t>
-  </si>
-  <si>
-    <t>Success message: "Order submitted successfully"</t>
-  </si>
-  <si>
     <t>Verify error for empty product quantity in popup</t>
   </si>
   <si>
@@ -740,9 +719,6 @@
     <t>CREATE_DELIVERY_11</t>
   </si>
   <si>
-    <t>CREATE_DELIVERY_12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Customer Viewing Deliveries</t>
   </si>
   <si>
@@ -992,9 +968,6 @@
     <t>Mission is marked as completed and removed from pending list</t>
   </si>
   <si>
-    <t>PENDING_MISSIONS_05</t>
-  </si>
-  <si>
     <t>Verify canceling mission completion</t>
   </si>
   <si>
@@ -1071,18 +1044,6 @@
   </si>
   <si>
     <t>All deliveries within the mission are displayed</t>
-  </si>
-  <si>
-    <t>PAST_MISSIONS_05</t>
-  </si>
-  <si>
-    <t>Verify error for no past missions</t>
-  </si>
-  <si>
-    <t>No past missions exist</t>
-  </si>
-  <si>
-    <t>No past missions displayed</t>
   </si>
   <si>
     <t>ßßß</t>
@@ -1319,9 +1280,6 @@
     <t>On the homepage, click on "View past missions" button</t>
   </si>
   <si>
-    <t>Message displayed: "No data available for driver"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Verification of Scheduler Viewing and Reordering Routes</t>
   </si>
   <si>
@@ -1416,6 +1374,27 @@
   </si>
   <si>
     <t>VIEW_ROUTE_06</t>
+  </si>
+  <si>
+    <t>All input fields are intially empty</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Update form loads with appropriate fields based on role (customer)</t>
+  </si>
+  <si>
+    <t>Error message: "Please Valid Truck details for Driver role"</t>
+  </si>
+  <si>
+    <t>Obaitan Elizabeth Amheanobe</t>
+  </si>
+  <si>
+    <t>Obaitan Elizabeth Elizabeth</t>
+  </si>
+  <si>
+    <t>Error message: 'Ensure all addresses are filled correctly from 1 to 3'</t>
   </si>
 </sst>
 </file>
@@ -1426,9 +1405,16 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1646,91 +1632,85 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1738,41 +1718,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2681,8 +2661,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2705,18 +2685,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,39 +2706,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -2770,7 +2754,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2793,298 +2777,342 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="E10" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="I10" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="I11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="I12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="F14" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
+      <c r="F17" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
+      <c r="I18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="I19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
+      <c r="F20" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="K20" s="28"/>
     </row>
     <row r="23" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="25" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3093,7 +3121,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3102,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2939A36-89CF-7543-B5F9-63CA5DBC4DC4}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3128,18 +3156,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3149,39 +3177,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -3193,7 +3225,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3215,135 +3247,125 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>303</v>
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>416</v>
+      <c r="E10" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>403</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="C13" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="H13" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
+      <c r="I13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3352,7 +3374,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3361,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C96B1-14EC-8F4F-94B3-73195B44E79B}">
-  <dimension ref="B2:P15"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3387,18 +3409,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3408,39 +3430,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -3452,7 +3478,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3474,147 +3500,137 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>323</v>
+    <row r="10" spans="2:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>416</v>
+      <c r="E10" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>403</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="F12" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="H12" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="I12" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="C13" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="G13" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="H13" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="P13" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-      <c r="P13" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+    </row>
+    <row r="14" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3623,7 +3639,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3634,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B366541-CA2B-CC4E-BB9D-E38E79E38E2B}">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3657,18 +3673,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,39 +3694,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -3722,7 +3742,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3745,150 +3765,170 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>357</v>
+      <c r="E10" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="E11" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="E12" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="12"/>
+      <c r="I13" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>366</v>
+      <c r="F15" s="27" t="s">
+        <v>353</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>95</v>
@@ -3896,77 +3936,89 @@
       <c r="H15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
+      <c r="I15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>350</v>
+      <c r="F17" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>337</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>369</v>
+      <c r="F18" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>106</v>
@@ -3974,21 +4026,25 @@
       <c r="H18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="I18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K18" s="7"/>
     </row>
     <row r="21" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="23" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4007,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C509C-7F65-8048-97F5-DF460F44272B}">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4031,18 +4087,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4052,39 +4108,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -4096,7 +4156,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4118,184 +4178,212 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>379</v>
+      <c r="D10" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>366</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>348</v>
+      <c r="G10" s="25" t="s">
+        <v>335</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>376</v>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>377</v>
+      <c r="E13" s="27" t="s">
+        <v>364</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>349</v>
+        <v>128</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>336</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>127</v>
+      <c r="G15" s="38" t="s">
+        <v>444</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="I15" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
+      <c r="F16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>442</v>
+      </c>
       <c r="K16" s="7"/>
     </row>
   </sheetData>
@@ -4305,7 +4393,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4316,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB0DB-3E25-784A-9BCC-E8826755E5DE}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4340,18 +4428,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4361,39 +4449,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -4405,7 +4497,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4427,209 +4519,241 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>174</v>
+      <c r="E10" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
+      <c r="I10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="H12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>155</v>
+      <c r="E13" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>158</v>
+      <c r="E14" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>144</v>
+      <c r="E15" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+      <c r="G15" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
+        <v>167</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
+      <c r="I17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4646,10 +4770,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D294CC8-3045-6A44-A680-BA424C17C61B}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="E10" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4672,18 +4796,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4693,39 +4817,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -4737,7 +4865,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -4759,317 +4887,335 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="I10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="E18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+      <c r="G18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="C19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="25"/>
+      <c r="H20" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5078,7 +5224,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5090,7 +5236,7 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5113,18 +5259,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,39 +5280,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -5178,7 +5328,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -5200,161 +5350,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="H11" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="I11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="H12" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="D13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G13" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+      <c r="I13" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+      <c r="I14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C15" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="F13" s="40" t="s">
+      <c r="E15" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="G15" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
+      <c r="I15" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5363,7 +5537,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5375,7 +5549,7 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J10" sqref="J10:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5398,18 +5572,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,39 +5593,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -5463,7 +5641,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -5485,161 +5663,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="E12" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="I12" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="C13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="G13" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="H13" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="I13" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="C14" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="G14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="40" t="s">
+      <c r="C15" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
+      <c r="G15" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5648,7 +5850,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5659,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC685776-1BE4-864A-9611-E23195FA5C37}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5683,18 +5885,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,39 +5906,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -5748,7 +5954,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -5771,160 +5977,184 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D14" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="40" t="s">
+      <c r="F14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H14" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="I14" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D15" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+      <c r="I15" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5933,7 +6163,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5945,7 +6175,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H11"/>
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5968,18 +6198,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,39 +6219,43 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="35"/>
+      <c r="C6" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="34">
+        <v>45685</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -6033,7 +6267,7 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -6055,109 +6289,125 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="F12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="I12" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F13" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H11" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6166,7 +6416,7 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
